--- a/data/pca/factorExposure/factorExposure_2017-07-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02354564564625066</v>
+        <v>-0.009337591950354674</v>
       </c>
       <c r="C2">
-        <v>-0.001791959470847614</v>
+        <v>-0.04361161415855091</v>
       </c>
       <c r="D2">
-        <v>0.0212314613952381</v>
+        <v>-0.02952864324889832</v>
       </c>
       <c r="E2">
-        <v>-0.01142398374368421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0323645930157178</v>
+      </c>
+      <c r="F2">
+        <v>0.01130387383271241</v>
+      </c>
+      <c r="G2">
+        <v>0.07200959948094532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01750876702198308</v>
+        <v>-0.04938972915754047</v>
       </c>
       <c r="C3">
-        <v>0.05633062949993788</v>
+        <v>-0.0829414597269396</v>
       </c>
       <c r="D3">
-        <v>0.03655921421499375</v>
+        <v>-0.01666097432300529</v>
       </c>
       <c r="E3">
-        <v>-0.01462514397531742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.104182808582586</v>
+      </c>
+      <c r="F3">
+        <v>0.0105423678712547</v>
+      </c>
+      <c r="G3">
+        <v>0.1775879534548593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02362180109340872</v>
+        <v>-0.05906647752123819</v>
       </c>
       <c r="C4">
-        <v>0.01583943508897437</v>
+        <v>-0.06632802306990157</v>
       </c>
       <c r="D4">
-        <v>0.06934938281197597</v>
+        <v>-0.02391483451090324</v>
       </c>
       <c r="E4">
-        <v>0.01462156490070106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02379589299534555</v>
+      </c>
+      <c r="F4">
+        <v>0.005767919148821859</v>
+      </c>
+      <c r="G4">
+        <v>0.07725383218623051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01497033232490194</v>
+        <v>-0.03803141752125257</v>
       </c>
       <c r="C6">
-        <v>0.006124035405011173</v>
+        <v>-0.05298078225777059</v>
       </c>
       <c r="D6">
-        <v>0.08456413323468363</v>
+        <v>-0.01654039341688353</v>
       </c>
       <c r="E6">
-        <v>0.008053298618287939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02637432684957845</v>
+      </c>
+      <c r="F6">
+        <v>0.01150833379462237</v>
+      </c>
+      <c r="G6">
+        <v>0.0591937384084676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0111706907858865</v>
+        <v>-0.01999841945504753</v>
       </c>
       <c r="C7">
-        <v>0.007595019697724194</v>
+        <v>-0.04106596119517791</v>
       </c>
       <c r="D7">
-        <v>0.0414022322255817</v>
+        <v>-0.01311648848836469</v>
       </c>
       <c r="E7">
-        <v>0.05968083936420276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.00565447248102167</v>
+      </c>
+      <c r="F7">
+        <v>-0.005786045046920226</v>
+      </c>
+      <c r="G7">
+        <v>0.1144241308850476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-8.46962763975406e-05</v>
+        <v>-0.001283726949558016</v>
       </c>
       <c r="C8">
-        <v>-0.001810411572243613</v>
+        <v>-0.02361516517703291</v>
       </c>
       <c r="D8">
-        <v>0.002620758500270032</v>
+        <v>-0.004071269560411205</v>
       </c>
       <c r="E8">
-        <v>0.008416653618944671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.022103131153332</v>
+      </c>
+      <c r="F8">
+        <v>0.008110055565375548</v>
+      </c>
+      <c r="G8">
+        <v>0.05742274434824857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01638588924562178</v>
+        <v>-0.03429897220485027</v>
       </c>
       <c r="C9">
-        <v>0.01669126390838227</v>
+        <v>-0.04719991201038254</v>
       </c>
       <c r="D9">
-        <v>0.05262676974881316</v>
+        <v>-0.01645447831064278</v>
       </c>
       <c r="E9">
-        <v>0.003829464637755186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0168384368414381</v>
+      </c>
+      <c r="F9">
+        <v>0.01047605550396283</v>
+      </c>
+      <c r="G9">
+        <v>0.08173781890702478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02237027325573866</v>
+        <v>-0.09551810720960009</v>
       </c>
       <c r="C10">
-        <v>0.168574177536098</v>
+        <v>0.1826861342801676</v>
       </c>
       <c r="D10">
-        <v>-0.09736679272373221</v>
+        <v>0.01593261445816477</v>
       </c>
       <c r="E10">
-        <v>-0.0107703751999276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01539794059135509</v>
+      </c>
+      <c r="F10">
+        <v>-0.02166960882218336</v>
+      </c>
+      <c r="G10">
+        <v>0.05217321454356379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0005959840099724467</v>
+        <v>-0.0344986077231316</v>
       </c>
       <c r="C11">
-        <v>0.004083017687913165</v>
+        <v>-0.05426396471906642</v>
       </c>
       <c r="D11">
-        <v>0.04293568411267409</v>
+        <v>-0.00252560489001382</v>
       </c>
       <c r="E11">
-        <v>-0.006226417304785269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009540858946083527</v>
+      </c>
+      <c r="F11">
+        <v>0.02110192792185328</v>
+      </c>
+      <c r="G11">
+        <v>0.0635843884060434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006355270095223223</v>
+        <v>-0.03634884283178281</v>
       </c>
       <c r="C12">
-        <v>0.01064767997843267</v>
+        <v>-0.04907557636279921</v>
       </c>
       <c r="D12">
-        <v>0.04811572029376913</v>
+        <v>-0.00624855196960112</v>
       </c>
       <c r="E12">
-        <v>0.005656553569855119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.000311402112786267</v>
+      </c>
+      <c r="F12">
+        <v>0.001109743748110943</v>
+      </c>
+      <c r="G12">
+        <v>0.05936331432232318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02399472767277253</v>
+        <v>-0.01510253243229083</v>
       </c>
       <c r="C13">
-        <v>0.01918609379366156</v>
+        <v>-0.0370671488445049</v>
       </c>
       <c r="D13">
-        <v>0.0008439224971162899</v>
+        <v>-0.02611758600104749</v>
       </c>
       <c r="E13">
-        <v>-0.00896079274829875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02943030473760151</v>
+      </c>
+      <c r="F13">
+        <v>0.006408088676890792</v>
+      </c>
+      <c r="G13">
+        <v>0.09380847341992568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008570423457204794</v>
+        <v>-0.008452865841844348</v>
       </c>
       <c r="C14">
-        <v>0.01494678820240215</v>
+        <v>-0.02645261675277772</v>
       </c>
       <c r="D14">
-        <v>0.007903773624765643</v>
+        <v>-0.009308402382966289</v>
       </c>
       <c r="E14">
-        <v>0.007905932093209991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.001660316319943001</v>
+      </c>
+      <c r="F14">
+        <v>-0.005634148594168073</v>
+      </c>
+      <c r="G14">
+        <v>0.08024518097686557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001469069880148478</v>
+        <v>-0.03331515621054013</v>
       </c>
       <c r="C16">
-        <v>0.009738608803972785</v>
+        <v>-0.04876033187845488</v>
       </c>
       <c r="D16">
-        <v>0.05008562301756304</v>
+        <v>-0.002027654565523563</v>
       </c>
       <c r="E16">
-        <v>0.004837458413256176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007951739190375865</v>
+      </c>
+      <c r="F16">
+        <v>0.002259893537041313</v>
+      </c>
+      <c r="G16">
+        <v>0.06556879646348666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01475635572213655</v>
+        <v>-0.02275870125356677</v>
       </c>
       <c r="C19">
-        <v>0.02110010496005797</v>
+        <v>-0.05026108451897445</v>
       </c>
       <c r="D19">
-        <v>0.01791262922318393</v>
+        <v>-0.01805392191348693</v>
       </c>
       <c r="E19">
-        <v>0.00499510463108519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06480740356494177</v>
+      </c>
+      <c r="F19">
+        <v>0.01969154121602418</v>
+      </c>
+      <c r="G19">
+        <v>0.109890659269329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01065483160345984</v>
+        <v>-0.01488041150259705</v>
       </c>
       <c r="C20">
-        <v>0.006261587407292793</v>
+        <v>-0.03742846929101685</v>
       </c>
       <c r="D20">
-        <v>0.01429530831011577</v>
+        <v>-0.01389528176120127</v>
       </c>
       <c r="E20">
-        <v>-0.01100900177760407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02716920268978478</v>
+      </c>
+      <c r="F20">
+        <v>-0.01099050713996086</v>
+      </c>
+      <c r="G20">
+        <v>0.08543924379707162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01496230803438599</v>
+        <v>-0.01332319274902311</v>
       </c>
       <c r="C21">
-        <v>0.01858912054135056</v>
+        <v>-0.03942503111868937</v>
       </c>
       <c r="D21">
-        <v>0.02336636101688347</v>
+        <v>-0.01805312918351695</v>
       </c>
       <c r="E21">
-        <v>0.01020710718472901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0400728709838085</v>
+      </c>
+      <c r="F21">
+        <v>-0.0007934123951832632</v>
+      </c>
+      <c r="G21">
+        <v>0.1130872123905234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004467596012117495</v>
+        <v>-0.027850027795775</v>
       </c>
       <c r="C24">
-        <v>-0.0008442674793513797</v>
+        <v>-0.05145124463054507</v>
       </c>
       <c r="D24">
-        <v>0.04469221400070154</v>
+        <v>-0.007361977591384456</v>
       </c>
       <c r="E24">
-        <v>0.0006780500374412114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005316214830943015</v>
+      </c>
+      <c r="F24">
+        <v>0.01402202272623979</v>
+      </c>
+      <c r="G24">
+        <v>0.06709353593496686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01242004565849267</v>
+        <v>-0.04249455145199824</v>
       </c>
       <c r="C25">
-        <v>0.01661194891492047</v>
+        <v>-0.0584502681743433</v>
       </c>
       <c r="D25">
-        <v>0.04639457967252356</v>
+        <v>-0.01140151485793626</v>
       </c>
       <c r="E25">
-        <v>0.001209388515132261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001016907436846921</v>
+      </c>
+      <c r="F25">
+        <v>0.008296934384729096</v>
+      </c>
+      <c r="G25">
+        <v>0.07469497597179064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02370240032772893</v>
+        <v>-0.01545388128938515</v>
       </c>
       <c r="C26">
-        <v>0.01156365244867561</v>
+        <v>-0.008980880707006127</v>
       </c>
       <c r="D26">
-        <v>-0.005640479544444955</v>
+        <v>-0.02343154374853062</v>
       </c>
       <c r="E26">
-        <v>0.008972375176609218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002798878203272107</v>
+      </c>
+      <c r="F26">
+        <v>-0.007856911272982811</v>
+      </c>
+      <c r="G26">
+        <v>0.06338862059919201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04617928764190166</v>
+        <v>-0.1215753516659253</v>
       </c>
       <c r="C28">
-        <v>0.2437187401780546</v>
+        <v>0.2355157278636631</v>
       </c>
       <c r="D28">
-        <v>-0.1443390373025036</v>
+        <v>0.006734664855261247</v>
       </c>
       <c r="E28">
-        <v>0.0123322760402724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.004084998904120916</v>
+      </c>
+      <c r="F28">
+        <v>-0.01627188323231597</v>
+      </c>
+      <c r="G28">
+        <v>0.06554368278017692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009085866031531191</v>
+        <v>-0.01053292987566965</v>
       </c>
       <c r="C29">
-        <v>0.02016882674293406</v>
+        <v>-0.02017444784683009</v>
       </c>
       <c r="D29">
-        <v>0.005634206409178087</v>
+        <v>-0.008063745575185058</v>
       </c>
       <c r="E29">
-        <v>0.003567025683546957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.003423048826561889</v>
+      </c>
+      <c r="F29">
+        <v>-0.0148285921004109</v>
+      </c>
+      <c r="G29">
+        <v>0.07167032685681836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02393961098876223</v>
+        <v>-0.0430958190085723</v>
       </c>
       <c r="C30">
-        <v>0.001056129376830844</v>
+        <v>-0.0660915584121886</v>
       </c>
       <c r="D30">
-        <v>0.05772109034719997</v>
+        <v>-0.02887894163421395</v>
       </c>
       <c r="E30">
-        <v>-0.04757271215657535</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05254032506917933</v>
+      </c>
+      <c r="F30">
+        <v>0.04918734270607368</v>
+      </c>
+      <c r="G30">
+        <v>0.08256146021721697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01007579090369358</v>
+        <v>-0.05299311230864603</v>
       </c>
       <c r="C31">
-        <v>0.04027832957194512</v>
+        <v>-0.0365211740052849</v>
       </c>
       <c r="D31">
-        <v>0.04686820378716542</v>
+        <v>-0.00328374650586504</v>
       </c>
       <c r="E31">
-        <v>0.01000468988954696</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005819772509973059</v>
+      </c>
+      <c r="F31">
+        <v>-0.04245580478471201</v>
+      </c>
+      <c r="G31">
+        <v>0.06904767207054327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005086136872272266</v>
+        <v>-0.0005329969883609487</v>
       </c>
       <c r="C32">
-        <v>0.02234150505854324</v>
+        <v>-0.02318810205850412</v>
       </c>
       <c r="D32">
-        <v>-0.01015088768256732</v>
+        <v>0.003801113938543021</v>
       </c>
       <c r="E32">
-        <v>0.05061999771233441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01725338796399143</v>
+      </c>
+      <c r="F32">
+        <v>0.04032325777669463</v>
+      </c>
+      <c r="G32">
+        <v>0.09815959637963477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01411999064237234</v>
+        <v>-0.02771789009972923</v>
       </c>
       <c r="C33">
-        <v>0.02409774111783021</v>
+        <v>-0.04835129465539657</v>
       </c>
       <c r="D33">
-        <v>0.02925056416836436</v>
+        <v>-0.01532111575579245</v>
       </c>
       <c r="E33">
-        <v>-0.03002721142301948</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03411075149629485</v>
+      </c>
+      <c r="F33">
+        <v>0.01776095580246279</v>
+      </c>
+      <c r="G33">
+        <v>0.1057453325294032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003946266060241816</v>
+        <v>-0.0397170434614087</v>
       </c>
       <c r="C34">
-        <v>0.01656305159279928</v>
+        <v>-0.06301055054485218</v>
       </c>
       <c r="D34">
-        <v>0.05186283558104047</v>
+        <v>0.004321588428216702</v>
       </c>
       <c r="E34">
-        <v>0.009311295074652661</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0003905295600423473</v>
+      </c>
+      <c r="F34">
+        <v>0.02082805400734733</v>
+      </c>
+      <c r="G34">
+        <v>0.07495791745490676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01332320018155595</v>
+        <v>-0.01502071569027835</v>
       </c>
       <c r="C36">
-        <v>0.02040654357160848</v>
+        <v>-0.009530176633221903</v>
       </c>
       <c r="D36">
-        <v>0.002817598447133166</v>
+        <v>-0.01183809502383283</v>
       </c>
       <c r="E36">
-        <v>0.003340697660018507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001967995142036916</v>
+      </c>
+      <c r="F36">
+        <v>-0.008803015131281062</v>
+      </c>
+      <c r="G36">
+        <v>0.06076082906594397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003137342331467797</v>
+        <v>-0.03274562293649019</v>
       </c>
       <c r="C38">
-        <v>0.03367750881612941</v>
+        <v>-0.03035148512661504</v>
       </c>
       <c r="D38">
-        <v>0.03929747582671075</v>
+        <v>0.007716125876887113</v>
       </c>
       <c r="E38">
-        <v>0.005505677874939835</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001448110686177345</v>
+      </c>
+      <c r="F38">
+        <v>-0.01775131421768143</v>
+      </c>
+      <c r="G38">
+        <v>0.06669590258656935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004354714903816067</v>
+        <v>-0.03530482030453951</v>
       </c>
       <c r="C39">
-        <v>-0.0217891847115611</v>
+        <v>-0.08098024350265937</v>
       </c>
       <c r="D39">
-        <v>0.08623969148071395</v>
+        <v>-0.01191732010602485</v>
       </c>
       <c r="E39">
-        <v>-0.01099438002721636</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0211409397821476</v>
+      </c>
+      <c r="F39">
+        <v>0.02649673047737058</v>
+      </c>
+      <c r="G39">
+        <v>0.06419371908256158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0123865688280764</v>
+        <v>-0.01523631212801868</v>
       </c>
       <c r="C40">
-        <v>0.01730692120000606</v>
+        <v>-0.04188666008842094</v>
       </c>
       <c r="D40">
-        <v>0.02598184155477963</v>
+        <v>-0.01511924766411746</v>
       </c>
       <c r="E40">
-        <v>0.002631874696712735</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02261093052819167</v>
+      </c>
+      <c r="F40">
+        <v>-0.01357932340167574</v>
+      </c>
+      <c r="G40">
+        <v>0.1053118635455003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006469574998157831</v>
+        <v>-0.01874573496914553</v>
       </c>
       <c r="C41">
-        <v>0.0213699696989917</v>
+        <v>0.0003612102370933862</v>
       </c>
       <c r="D41">
-        <v>-0.008092353132804826</v>
+        <v>-0.003745912145883064</v>
       </c>
       <c r="E41">
-        <v>0.003115542321226633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0002926218708844706</v>
+      </c>
+      <c r="F41">
+        <v>-0.0110132085585636</v>
+      </c>
+      <c r="G41">
+        <v>0.04778795858666995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09330073366655295</v>
+        <v>-0.01034113300799451</v>
       </c>
       <c r="C42">
-        <v>-0.02067650221500613</v>
+        <v>-0.0376822301707791</v>
       </c>
       <c r="D42">
-        <v>0.2783368622299642</v>
+        <v>-0.09338664546826894</v>
       </c>
       <c r="E42">
-        <v>-0.4183896046326166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02817219776873124</v>
+      </c>
+      <c r="F42">
+        <v>-0.03824977847755776</v>
+      </c>
+      <c r="G42">
+        <v>-0.1592182077588966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007883100446361452</v>
+        <v>-0.03376050268382827</v>
       </c>
       <c r="C43">
-        <v>0.02605993975273796</v>
+        <v>-0.01344183139887744</v>
       </c>
       <c r="D43">
-        <v>-0.007116343650129452</v>
+        <v>-0.00535785755537771</v>
       </c>
       <c r="E43">
-        <v>-0.002162555590087405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01320610843131872</v>
+      </c>
+      <c r="F43">
+        <v>-0.004161116283693594</v>
+      </c>
+      <c r="G43">
+        <v>0.0724622020485482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.00248591316576297</v>
+        <v>-0.01271941866137498</v>
       </c>
       <c r="C44">
-        <v>0.001887754281379981</v>
+        <v>-0.05462037550365694</v>
       </c>
       <c r="D44">
-        <v>0.03436120885012073</v>
+        <v>-0.006571323673415457</v>
       </c>
       <c r="E44">
-        <v>0.006015771005531098</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01773201560670356</v>
+      </c>
+      <c r="F44">
+        <v>-0.01003236944963693</v>
+      </c>
+      <c r="G44">
+        <v>0.08844286549474097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01131813592517337</v>
+        <v>-0.007684073548236512</v>
       </c>
       <c r="C46">
-        <v>0.01475355483746573</v>
+        <v>-0.01580856986032394</v>
       </c>
       <c r="D46">
-        <v>0.009829814618972787</v>
+        <v>-0.01191099990592109</v>
       </c>
       <c r="E46">
-        <v>-0.001160377800426821</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001423525765311831</v>
+      </c>
+      <c r="F46">
+        <v>-0.01591182851239847</v>
+      </c>
+      <c r="G46">
+        <v>0.07154720756910589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004786848283070265</v>
+        <v>-0.07825390609265206</v>
       </c>
       <c r="C47">
-        <v>0.05131073453694504</v>
+        <v>-0.06478804732284957</v>
       </c>
       <c r="D47">
-        <v>0.06913998506601575</v>
+        <v>0.005355892146824843</v>
       </c>
       <c r="E47">
-        <v>0.00460538912360414</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01003582884603451</v>
+      </c>
+      <c r="F47">
+        <v>-0.05622805459888208</v>
+      </c>
+      <c r="G47">
+        <v>0.06430341438367083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004278686366031383</v>
+        <v>-0.02084668201199932</v>
       </c>
       <c r="C48">
-        <v>0.02538265172973186</v>
+        <v>-0.01130905141646149</v>
       </c>
       <c r="D48">
-        <v>0.01515153418913181</v>
+        <v>-0.001089560489639127</v>
       </c>
       <c r="E48">
-        <v>0.002922844153649635</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.00229800372573585</v>
+      </c>
+      <c r="F48">
+        <v>-0.02229064614836274</v>
+      </c>
+      <c r="G48">
+        <v>0.06726438985352501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006705623373076694</v>
+        <v>-0.07644103608261858</v>
       </c>
       <c r="C50">
-        <v>0.05234134246033528</v>
+        <v>-0.06863916634393034</v>
       </c>
       <c r="D50">
-        <v>0.07148059228215267</v>
+        <v>0.003016587852923314</v>
       </c>
       <c r="E50">
-        <v>0.03194574716115528</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01033231265021458</v>
+      </c>
+      <c r="F50">
+        <v>-0.06033300749080017</v>
+      </c>
+      <c r="G50">
+        <v>0.0844734693562889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007660256242312161</v>
+        <v>-0.01393446817464849</v>
       </c>
       <c r="C51">
-        <v>0.01704421081849542</v>
+        <v>-0.03350838970356517</v>
       </c>
       <c r="D51">
-        <v>-0.0002981841177072709</v>
+        <v>-0.009981677860561941</v>
       </c>
       <c r="E51">
-        <v>0.005343835089583636</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.0168230078645804</v>
+      </c>
+      <c r="F51">
+        <v>0.02324668945603242</v>
+      </c>
+      <c r="G51">
+        <v>0.1028018360654725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007934477977295377</v>
+        <v>-0.08309277352631109</v>
       </c>
       <c r="C53">
-        <v>0.06329462222717817</v>
+        <v>-0.08322669417316436</v>
       </c>
       <c r="D53">
-        <v>0.1266355823157959</v>
+        <v>0.004262624141408267</v>
       </c>
       <c r="E53">
-        <v>0.01205855158935392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0301127629255442</v>
+      </c>
+      <c r="F53">
+        <v>-0.06545869795144735</v>
+      </c>
+      <c r="G53">
+        <v>0.06337172199674095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.00177890396564353</v>
+        <v>-0.02965023335333675</v>
       </c>
       <c r="C54">
-        <v>0.03432617838315724</v>
+        <v>-0.01457616131349268</v>
       </c>
       <c r="D54">
-        <v>-0.006724192723762873</v>
+        <v>0.001868683706361175</v>
       </c>
       <c r="E54">
-        <v>0.000861902456018128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.008826365909282536</v>
+      </c>
+      <c r="F54">
+        <v>-0.001786710501845617</v>
+      </c>
+      <c r="G54">
+        <v>0.07416196790180649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003946440304535041</v>
+        <v>-0.07270950861764978</v>
       </c>
       <c r="C55">
-        <v>0.04183597700946691</v>
+        <v>-0.06889655590734915</v>
       </c>
       <c r="D55">
-        <v>0.1048985443001644</v>
+        <v>0.005460662196188248</v>
       </c>
       <c r="E55">
-        <v>-0.001239359502562138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02599050381176117</v>
+      </c>
+      <c r="F55">
+        <v>-0.06167544856397137</v>
+      </c>
+      <c r="G55">
+        <v>0.03871238888365226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007046124039379631</v>
+        <v>-0.1395833344495412</v>
       </c>
       <c r="C56">
-        <v>0.08766228071112528</v>
+        <v>-0.1084864793437132</v>
       </c>
       <c r="D56">
-        <v>0.1636890838679121</v>
+        <v>0.01270988875887175</v>
       </c>
       <c r="E56">
-        <v>0.001274366418118868</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03379218306330033</v>
+      </c>
+      <c r="F56">
+        <v>-0.07965224901024995</v>
+      </c>
+      <c r="G56">
+        <v>0.01605198077874949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0234848223407041</v>
+        <v>-0.007094013551647844</v>
       </c>
       <c r="C57">
-        <v>0.01029181142865798</v>
+        <v>-0.009145609058438411</v>
       </c>
       <c r="D57">
-        <v>0.04311927387385918</v>
+        <v>-0.02353591747294755</v>
       </c>
       <c r="E57">
-        <v>-0.003225378124674094</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02417611891138318</v>
+      </c>
+      <c r="F57">
+        <v>0.008856048007001176</v>
+      </c>
+      <c r="G57">
+        <v>0.02793625830867169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01686628332073384</v>
+        <v>-0.06736037136083278</v>
       </c>
       <c r="C58">
-        <v>0.08294698792006332</v>
+        <v>-0.04242669287317711</v>
       </c>
       <c r="D58">
-        <v>0.1249888980313065</v>
+        <v>-0.02630733355850162</v>
       </c>
       <c r="E58">
-        <v>-0.4158569857654669</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9342156263315375</v>
+      </c>
+      <c r="F58">
+        <v>-0.2405639143525794</v>
+      </c>
+      <c r="G58">
+        <v>-0.1105148287414184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04360528689269512</v>
+        <v>-0.1577067985912738</v>
       </c>
       <c r="C59">
-        <v>0.2588817572391607</v>
+        <v>0.2039825977960651</v>
       </c>
       <c r="D59">
-        <v>-0.1492159019726031</v>
+        <v>0.01230327138413721</v>
       </c>
       <c r="E59">
-        <v>0.006167413160362812</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01397413889227773</v>
+      </c>
+      <c r="F59">
+        <v>-0.000683865469818027</v>
+      </c>
+      <c r="G59">
+        <v>0.04207699185458298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04367164109622851</v>
+        <v>-0.2879222543532715</v>
       </c>
       <c r="C60">
-        <v>0.163209442551661</v>
+        <v>-0.09794604287381425</v>
       </c>
       <c r="D60">
-        <v>0.08166741298597706</v>
+        <v>-0.0126770124446568</v>
       </c>
       <c r="E60">
-        <v>0.004339522159302085</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.001203085938182139</v>
+      </c>
+      <c r="F60">
+        <v>0.3517839897598972</v>
+      </c>
+      <c r="G60">
+        <v>-0.1182448419041104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003156663475250243</v>
+        <v>-0.03657817202426506</v>
       </c>
       <c r="C61">
-        <v>0.00525497004964195</v>
+        <v>-0.06642254645362461</v>
       </c>
       <c r="D61">
-        <v>0.06157324876280656</v>
+        <v>-0.005382597358305467</v>
       </c>
       <c r="E61">
-        <v>0.002074734293171555</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01374185861498885</v>
+      </c>
+      <c r="F61">
+        <v>0.01496618603386401</v>
+      </c>
+      <c r="G61">
+        <v>0.06561568757743164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007986754455238262</v>
+        <v>-0.01430486219513749</v>
       </c>
       <c r="C63">
-        <v>0.008118039422296769</v>
+        <v>-0.02926606724645385</v>
       </c>
       <c r="D63">
-        <v>0.01032803799285688</v>
+        <v>-0.008168627775056562</v>
       </c>
       <c r="E63">
-        <v>0.009805186111201656</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001352533903682678</v>
+      </c>
+      <c r="F63">
+        <v>-0.0182801011426576</v>
+      </c>
+      <c r="G63">
+        <v>0.07245495281445712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009344832709624993</v>
+        <v>-0.04716030094092478</v>
       </c>
       <c r="C64">
-        <v>0.0286208199004388</v>
+        <v>-0.0461113409278015</v>
       </c>
       <c r="D64">
-        <v>0.06312781578643512</v>
+        <v>-0.006456345892500273</v>
       </c>
       <c r="E64">
-        <v>-0.01449562394570904</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.002792693642010626</v>
+      </c>
+      <c r="F64">
+        <v>0.005935733943388152</v>
+      </c>
+      <c r="G64">
+        <v>0.06048127943774424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01696247896996607</v>
+        <v>-0.07742631668829221</v>
       </c>
       <c r="C65">
-        <v>0.005558450746697597</v>
+        <v>-0.05939467499082671</v>
       </c>
       <c r="D65">
-        <v>0.09971449304104137</v>
+        <v>-0.01627469286446108</v>
       </c>
       <c r="E65">
-        <v>0.01104699017381419</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02787025511439616</v>
+      </c>
+      <c r="F65">
+        <v>0.03102534399892601</v>
+      </c>
+      <c r="G65">
+        <v>0.02594961112529744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004149692688149252</v>
+        <v>-0.05093923324291016</v>
       </c>
       <c r="C66">
-        <v>-0.01766894672852152</v>
+        <v>-0.1117255294124154</v>
       </c>
       <c r="D66">
-        <v>0.110229954449283</v>
+        <v>-0.01196029256491942</v>
       </c>
       <c r="E66">
-        <v>-0.008027966007103322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02957172400776796</v>
+      </c>
+      <c r="F66">
+        <v>0.03562736627141147</v>
+      </c>
+      <c r="G66">
+        <v>0.07428835422475631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003766651994654046</v>
+        <v>-0.0555143110105805</v>
       </c>
       <c r="C67">
-        <v>0.05560520690782869</v>
+        <v>-0.03366526101937396</v>
       </c>
       <c r="D67">
-        <v>0.04620587554015409</v>
+        <v>0.005952762850058003</v>
       </c>
       <c r="E67">
-        <v>0.006589785618338248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005346257696421709</v>
+      </c>
+      <c r="F67">
+        <v>-0.01810271615759193</v>
+      </c>
+      <c r="G67">
+        <v>0.06057637245360312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05997500590525646</v>
+        <v>-0.1455189926620106</v>
       </c>
       <c r="C68">
-        <v>0.2347917257702947</v>
+        <v>0.2695304712692286</v>
       </c>
       <c r="D68">
-        <v>-0.1542378113880597</v>
+        <v>-0.005533445837601696</v>
       </c>
       <c r="E68">
-        <v>-0.01494538825043246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01076263190042365</v>
+      </c>
+      <c r="F68">
+        <v>-0.03159882409176338</v>
+      </c>
+      <c r="G68">
+        <v>0.02437251946264676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0005556227999877462</v>
+        <v>-0.08210562252943156</v>
       </c>
       <c r="C69">
-        <v>0.04029661807559013</v>
+        <v>-0.06787734340713114</v>
       </c>
       <c r="D69">
-        <v>0.06970155957492336</v>
+        <v>0.009499074878739126</v>
       </c>
       <c r="E69">
-        <v>0.009741647976325624</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02721372979604366</v>
+      </c>
+      <c r="F69">
+        <v>-0.03972055551265645</v>
+      </c>
+      <c r="G69">
+        <v>0.06645294506455422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0444414538231627</v>
+        <v>-0.1340089794908846</v>
       </c>
       <c r="C71">
-        <v>0.2050660993903851</v>
+        <v>0.2292960169358244</v>
       </c>
       <c r="D71">
-        <v>-0.1244127553799767</v>
+        <v>0.003217677992857124</v>
       </c>
       <c r="E71">
-        <v>-0.008451513374440759</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03020875552901705</v>
+      </c>
+      <c r="F71">
+        <v>-0.01611747853872544</v>
+      </c>
+      <c r="G71">
+        <v>0.05498776817329197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0004453336530477041</v>
+        <v>-0.08627407546038036</v>
       </c>
       <c r="C72">
-        <v>0.04035622805794482</v>
+        <v>-0.07188041200379114</v>
       </c>
       <c r="D72">
-        <v>0.115931783828106</v>
+        <v>0.007943163273696879</v>
       </c>
       <c r="E72">
-        <v>0.005624586885732243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.001508697996212254</v>
+      </c>
+      <c r="F72">
+        <v>0.04361246513008005</v>
+      </c>
+      <c r="G72">
+        <v>0.05876804619778501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05541759925942162</v>
+        <v>-0.3807698214343885</v>
       </c>
       <c r="C73">
-        <v>0.1760647396719608</v>
+        <v>-0.1122641380428858</v>
       </c>
       <c r="D73">
-        <v>0.1641705752253509</v>
+        <v>-0.02172175336360827</v>
       </c>
       <c r="E73">
-        <v>-0.03383275567211052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06959152916916361</v>
+      </c>
+      <c r="F73">
+        <v>0.5706224988786173</v>
+      </c>
+      <c r="G73">
+        <v>-0.2031448134305431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.004025418632601124</v>
+        <v>-0.1086591994839515</v>
       </c>
       <c r="C74">
-        <v>0.07244378119337808</v>
+        <v>-0.1112188061956465</v>
       </c>
       <c r="D74">
-        <v>0.1611423643572272</v>
+        <v>0.009939381808829882</v>
       </c>
       <c r="E74">
-        <v>-0.009067466508825192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01299329347280859</v>
+      </c>
+      <c r="F74">
+        <v>-0.07153354931140424</v>
+      </c>
+      <c r="G74">
+        <v>0.05984988273647927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01375078284948669</v>
+        <v>-0.2501697036976647</v>
       </c>
       <c r="C75">
-        <v>0.1745623566255969</v>
+        <v>-0.1477573829685722</v>
       </c>
       <c r="D75">
-        <v>0.298340688784846</v>
+        <v>0.03068476521189887</v>
       </c>
       <c r="E75">
-        <v>-0.0151923429183464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0575509760448159</v>
+      </c>
+      <c r="F75">
+        <v>-0.1740462771775566</v>
+      </c>
+      <c r="G75">
+        <v>-0.05849370788367428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001242874470130028</v>
+        <v>-0.1237329604640456</v>
       </c>
       <c r="C76">
-        <v>0.1092225469937051</v>
+        <v>-0.113308937955426</v>
       </c>
       <c r="D76">
-        <v>0.2317837416640724</v>
+        <v>0.0203197716305737</v>
       </c>
       <c r="E76">
-        <v>0.03353592198488832</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04263818193571243</v>
+      </c>
+      <c r="F76">
+        <v>-0.1149514012232296</v>
+      </c>
+      <c r="G76">
+        <v>0.03828051598319692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01418482726837321</v>
+        <v>-0.06698921656516114</v>
       </c>
       <c r="C77">
-        <v>0.02104603593378502</v>
+        <v>-0.05901102624867265</v>
       </c>
       <c r="D77">
-        <v>0.0314875774332861</v>
+        <v>-0.01254842529918159</v>
       </c>
       <c r="E77">
-        <v>-0.01809229111959722</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05047991419771048</v>
+      </c>
+      <c r="F77">
+        <v>0.01319640145265679</v>
+      </c>
+      <c r="G77">
+        <v>0.06311802458496692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.00657758545755273</v>
+        <v>-0.04464107544124575</v>
       </c>
       <c r="C78">
-        <v>0.02107250902732776</v>
+        <v>-0.04858598015519159</v>
       </c>
       <c r="D78">
-        <v>0.03913671345025325</v>
+        <v>-0.005424715748278405</v>
       </c>
       <c r="E78">
-        <v>-0.003768043856434027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0233033901555262</v>
+      </c>
+      <c r="F78">
+        <v>0.03672844855749947</v>
+      </c>
+      <c r="G78">
+        <v>0.07010555364269404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01674592361805603</v>
+        <v>-0.05643560525649879</v>
       </c>
       <c r="C80">
-        <v>0.08287639223707027</v>
+        <v>-0.07095830318671559</v>
       </c>
       <c r="D80">
-        <v>0.2239910003025052</v>
+        <v>-0.01034261201180092</v>
       </c>
       <c r="E80">
-        <v>0.7817477440786826</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02544469884334567</v>
+      </c>
+      <c r="F80">
+        <v>0.002169072908888243</v>
+      </c>
+      <c r="G80">
+        <v>0.6283896927638564</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008701140472762957</v>
+        <v>-0.1404548484352869</v>
       </c>
       <c r="C81">
-        <v>0.1027611539115847</v>
+        <v>-0.0948864326187959</v>
       </c>
       <c r="D81">
-        <v>0.1713448069579825</v>
+        <v>0.01536383741853439</v>
       </c>
       <c r="E81">
-        <v>0.01286749965534344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0363142173943103</v>
+      </c>
+      <c r="F81">
+        <v>-0.1317987577861184</v>
+      </c>
+      <c r="G81">
+        <v>0.02160884856199317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1226326840264178</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.06640933530169156</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00724716961007301</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08770808592585662</v>
+      </c>
+      <c r="F82">
+        <v>-0.03109318339101913</v>
+      </c>
+      <c r="G82">
+        <v>0.03366701334114305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007221267725125038</v>
+        <v>-0.03588319879523884</v>
       </c>
       <c r="C83">
-        <v>0.01964329811653597</v>
+        <v>-0.02616450713961024</v>
       </c>
       <c r="D83">
-        <v>0.02002322506445729</v>
+        <v>-0.005622387126385232</v>
       </c>
       <c r="E83">
-        <v>-0.0005304829513360114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02752149066599526</v>
+      </c>
+      <c r="F83">
+        <v>0.03337142993551704</v>
+      </c>
+      <c r="G83">
+        <v>0.04685664989121629</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02052587114774413</v>
+        <v>-0.217047783689712</v>
       </c>
       <c r="C85">
-        <v>0.1412731023823936</v>
+        <v>-0.1417519299979084</v>
       </c>
       <c r="D85">
-        <v>0.2683786133578035</v>
+        <v>0.01851279222332476</v>
       </c>
       <c r="E85">
-        <v>-0.008061227860055788</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09882104898965385</v>
+      </c>
+      <c r="F85">
+        <v>-0.1356903881389513</v>
+      </c>
+      <c r="G85">
+        <v>-0.107335327232588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009902904367442801</v>
+        <v>-0.01333535327989423</v>
       </c>
       <c r="C86">
-        <v>0.03108439953260465</v>
+        <v>-0.02494681567834225</v>
       </c>
       <c r="D86">
-        <v>0.007762337015907054</v>
+        <v>-0.01212148339639702</v>
       </c>
       <c r="E86">
-        <v>-0.03531898754422737</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04657331604159308</v>
+      </c>
+      <c r="F86">
+        <v>0.0324887618883492</v>
+      </c>
+      <c r="G86">
+        <v>0.1542437644157614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008949238377171423</v>
+        <v>-0.02401497198729561</v>
       </c>
       <c r="C87">
-        <v>0.0113211760078221</v>
+        <v>-0.02615833313901615</v>
       </c>
       <c r="D87">
-        <v>0.03855437897387225</v>
+        <v>-0.01193770561831088</v>
       </c>
       <c r="E87">
-        <v>-0.007767314385129453</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08547107077787106</v>
+      </c>
+      <c r="F87">
+        <v>0.02039160584451569</v>
+      </c>
+      <c r="G87">
+        <v>0.09318165415151095</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02762753709976548</v>
+        <v>-0.09139607135730211</v>
       </c>
       <c r="C88">
-        <v>0.02633650193561919</v>
+        <v>-0.06439379942859728</v>
       </c>
       <c r="D88">
-        <v>0.03945377104942435</v>
+        <v>-0.02232555026817887</v>
       </c>
       <c r="E88">
-        <v>0.0008487180572667598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0114395376843801</v>
+      </c>
+      <c r="F88">
+        <v>-0.01958072474866267</v>
+      </c>
+      <c r="G88">
+        <v>0.04767043436927011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08517377097511053</v>
+        <v>-0.2257759285805719</v>
       </c>
       <c r="C89">
-        <v>0.3842978805893548</v>
+        <v>0.3693561773623432</v>
       </c>
       <c r="D89">
-        <v>-0.2255352416606702</v>
+        <v>0.001894747942725948</v>
       </c>
       <c r="E89">
-        <v>0.01842682581762941</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02334524812712364</v>
+      </c>
+      <c r="F89">
+        <v>-0.03530653163979876</v>
+      </c>
+      <c r="G89">
+        <v>0.04884233812493111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06462051478105633</v>
+        <v>-0.203308643552989</v>
       </c>
       <c r="C90">
-        <v>0.2964004348634252</v>
+        <v>0.3255374810842536</v>
       </c>
       <c r="D90">
-        <v>-0.1983601391928662</v>
+        <v>0.006371148705150939</v>
       </c>
       <c r="E90">
-        <v>-0.01599776955576002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01258516323336826</v>
+      </c>
+      <c r="F90">
+        <v>-0.05001946018397808</v>
+      </c>
+      <c r="G90">
+        <v>0.01811679390300765</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009329993409860269</v>
+        <v>-0.1905137812385492</v>
       </c>
       <c r="C91">
-        <v>0.1492643370089326</v>
+        <v>-0.1401443709354667</v>
       </c>
       <c r="D91">
-        <v>0.2262918813542342</v>
+        <v>0.02329258486171468</v>
       </c>
       <c r="E91">
-        <v>0.01376117935042388</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06907918687036049</v>
+      </c>
+      <c r="F91">
+        <v>-0.1499705014645466</v>
+      </c>
+      <c r="G91">
+        <v>0.01008602547539167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03160085002586991</v>
+        <v>-0.1995091023354168</v>
       </c>
       <c r="C92">
-        <v>0.308663251694749</v>
+        <v>0.2634403785895461</v>
       </c>
       <c r="D92">
-        <v>-0.09057862735304398</v>
+        <v>0.0406096973956952</v>
       </c>
       <c r="E92">
-        <v>-0.01814821896206295</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02236947361040574</v>
+      </c>
+      <c r="F92">
+        <v>-0.06273604615167308</v>
+      </c>
+      <c r="G92">
+        <v>0.1248090539259371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06278187356391812</v>
+        <v>-0.2281692879732276</v>
       </c>
       <c r="C93">
-        <v>0.320941578003013</v>
+        <v>0.3242547729894479</v>
       </c>
       <c r="D93">
-        <v>-0.182865109527866</v>
+        <v>0.01296887261027761</v>
       </c>
       <c r="E93">
-        <v>-0.0401724025276342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.00255485240983627</v>
+      </c>
+      <c r="F93">
+        <v>-0.0333141275197159</v>
+      </c>
+      <c r="G93">
+        <v>0.02019303074790827</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03312000104061747</v>
+        <v>-0.3160624810186011</v>
       </c>
       <c r="C94">
-        <v>0.1734058439915976</v>
+        <v>-0.1755179116937165</v>
       </c>
       <c r="D94">
-        <v>0.2559910113252281</v>
+        <v>0.0178860379688684</v>
       </c>
       <c r="E94">
-        <v>-0.01649223035313549</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1724158587390271</v>
+      </c>
+      <c r="F94">
+        <v>-0.4754106929001846</v>
+      </c>
+      <c r="G94">
+        <v>-0.3063926512919832</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004271810683275884</v>
+        <v>-0.09984524888486282</v>
       </c>
       <c r="C95">
-        <v>0.03734478709905512</v>
+        <v>-0.08688462702321061</v>
       </c>
       <c r="D95">
-        <v>0.08691842335227325</v>
+        <v>0.009667471185833105</v>
       </c>
       <c r="E95">
-        <v>-0.1274146614460077</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06234756834035317</v>
+      </c>
+      <c r="F95">
+        <v>0.206362261403825</v>
+      </c>
+      <c r="G95">
+        <v>-0.1225777841305272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01646534716801805</v>
+        <v>-0.1997582109761804</v>
       </c>
       <c r="C98">
-        <v>0.1628883033243405</v>
+        <v>-0.04558130014778733</v>
       </c>
       <c r="D98">
-        <v>0.1199799887059312</v>
+        <v>0.01254675479018616</v>
       </c>
       <c r="E98">
-        <v>-0.042560930554892</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06967876106787695</v>
+      </c>
+      <c r="F98">
+        <v>0.238054605667428</v>
+      </c>
+      <c r="G98">
+        <v>-0.006246312457233737</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008866268006597108</v>
+        <v>-0.01035570778439489</v>
       </c>
       <c r="C101">
-        <v>0.01986764262597052</v>
+        <v>-0.02013262250725513</v>
       </c>
       <c r="D101">
-        <v>0.005359448703699698</v>
+        <v>-0.007884746444345626</v>
       </c>
       <c r="E101">
-        <v>0.003969270173560498</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.003707029271814277</v>
+      </c>
+      <c r="F101">
+        <v>-0.01583864118387776</v>
+      </c>
+      <c r="G101">
+        <v>0.07115217266587515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01882476766395891</v>
+        <v>-0.1180540958408416</v>
       </c>
       <c r="C102">
-        <v>0.07655447001776533</v>
+        <v>-0.08402605136236878</v>
       </c>
       <c r="D102">
-        <v>0.1307811327251024</v>
+        <v>-0.001003290554674251</v>
       </c>
       <c r="E102">
-        <v>0.0006980839191172512</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03197440547337829</v>
+      </c>
+      <c r="F102">
+        <v>-0.04040845391330974</v>
+      </c>
+      <c r="G102">
+        <v>1.16747221608926e-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.00171011348321655</v>
+        <v>-0.003025484413384381</v>
       </c>
       <c r="C103">
-        <v>0.009399006745826092</v>
+        <v>-0.003681348518880546</v>
       </c>
       <c r="D103">
-        <v>0.02208045539531438</v>
+        <v>-0.000173170259263546</v>
       </c>
       <c r="E103">
-        <v>0.0135730154415793</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002026178810480217</v>
+      </c>
+      <c r="F103">
+        <v>-0.004533528709468336</v>
+      </c>
+      <c r="G103">
+        <v>0.01236858671148749</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9739094014235674</v>
+        <v>-0.02237246383549707</v>
       </c>
       <c r="C104">
-        <v>-0.1815188709009658</v>
+        <v>0.03253307899397397</v>
       </c>
       <c r="D104">
-        <v>-0.01520996134471021</v>
+        <v>-0.9872996419786235</v>
       </c>
       <c r="E104">
-        <v>0.04075136310676256</v>
+        <v>0.05155909695646202</v>
+      </c>
+      <c r="F104">
+        <v>-0.03784695410989929</v>
+      </c>
+      <c r="G104">
+        <v>-0.02321482258814333</v>
       </c>
     </row>
   </sheetData>
